--- a/code lists/DE4A Code Lists - Document Type Identifiers v2-draft.xlsx
+++ b/code lists/DE4A Code Lists - Document Type Identifiers v2-draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-de4a\de4a-codelists\code lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D4643-9F90-452C-A5F1-27F1B4D3811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5076EE-1639-4669-8A23-310C62FE08C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27495" yWindow="450" windowWidth="21735" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -27,20 +27,21 @@
     <definedName name="_ftnref4" localSheetId="0">'Document Type'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
-  <si>
-    <t>Since</t>
-  </si>
-  <si>
-    <t>Deprecated?</t>
-  </si>
-  <si>
-    <t>Deprecated since</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>ID Name</t>
   </si>
@@ -94,6 +95,18 @@
   </si>
   <si>
     <t>Iteration 2 identifier</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Deprecation version</t>
+  </si>
+  <si>
+    <t>Initial version</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -596,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,158 +619,152 @@
     <col min="3" max="3" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/code lists/DE4A Code Lists - Document Type Identifiers v2-draft.xlsx
+++ b/code lists/DE4A Code Lists - Document Type Identifiers v2-draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-de4a\de4a-codelists\code lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5076EE-1639-4669-8A23-310C62FE08C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE8520-86DC-4465-A694-CD4BCB7FA01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27495" yWindow="450" windowWidth="21735" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>ID Name</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>MultiItem:1.0</t>
+  </si>
+  <si>
+    <t>Multi Item Request</t>
   </si>
 </sst>
 </file>
@@ -605,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +773,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/code lists/DE4A Code Lists - Document Type Identifiers v2-draft.xlsx
+++ b/code lists/DE4A Code Lists - Document Type Identifiers v2-draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-de4a\de4a-codelists\code lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduardo.moreno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE8520-86DC-4465-A694-CD4BCB7FA01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AEACE7-911D-4FC1-8EBC-D27F43CC3AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>ID Name</t>
   </si>
@@ -58,21 +58,6 @@
     <t>DBA Company Registration</t>
   </si>
   <si>
-    <t>SA HigherEducationDiploma</t>
-  </si>
-  <si>
-    <t>SA SecondaryEducationDiploma</t>
-  </si>
-  <si>
-    <t>MA ResidenceRegistration</t>
-  </si>
-  <si>
-    <t>MA MarriageRegistration</t>
-  </si>
-  <si>
-    <t>MA BirthCertificate</t>
-  </si>
-  <si>
     <t>CompanyRegistration:1.0</t>
   </si>
   <si>
@@ -85,9 +70,6 @@
     <t>ResidenceRegistration:1.0</t>
   </si>
   <si>
-    <t>MarriageRegistration:1.0</t>
-  </si>
-  <si>
     <t>BirthCertificate:1.0</t>
   </si>
   <si>
@@ -103,16 +85,61 @@
     <t>Deprecation version</t>
   </si>
   <si>
-    <t>Initial version</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
     <t>MultiItem:1.0</t>
   </si>
   <si>
-    <t>Multi Item Request</t>
+    <t>HigherEducationDiploma:2.0</t>
+  </si>
+  <si>
+    <t>DisabilityEvidence:1.0</t>
+  </si>
+  <si>
+    <t>SA Disability Evidence</t>
+  </si>
+  <si>
+    <t>SA Large Family Evidence</t>
+  </si>
+  <si>
+    <t>LargeFamilyEvidence:1.0</t>
+  </si>
+  <si>
+    <t>SA Higher Education Diploma</t>
+  </si>
+  <si>
+    <t>SA Secondary Education Diploma</t>
+  </si>
+  <si>
+    <t>MA Residence Registration</t>
+  </si>
+  <si>
+    <t>MA Marriage Registration</t>
+  </si>
+  <si>
+    <t>MA Birth Certificate</t>
+  </si>
+  <si>
+    <t>DBA Business events</t>
+  </si>
+  <si>
+    <t>urn:de4a-eu:CanonicalEventCatalogueType</t>
+  </si>
+  <si>
+    <t>Multi Item Evidence Request</t>
+  </si>
+  <si>
+    <t>Multi Item Subscription Request</t>
+  </si>
+  <si>
+    <t>BusinessEvents:1.0</t>
+  </si>
+  <si>
+    <t>Initial iteration</t>
+  </si>
+  <si>
+    <t>MarriageEvidence:1.0</t>
   </si>
 </sst>
 </file>
@@ -206,7 +233,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,26 +638,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="38" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -641,19 +668,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -661,136 +688,237 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
